--- a/tests/data/value_in_share.xlsx
+++ b/tests/data/value_in_share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WinUser\PycharmProjects\abc_test\pyAnalysis\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67398B41-D3DC-42CD-93A1-645CB87259E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E57E3A7-8EA9-491D-83F1-057AC95D7010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2292" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Доля</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>2.732240</t>
+  </si>
+  <si>
+    <t>Аккум.доля</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>81.967213</t>
+  </si>
+  <si>
+    <t>92.896175</t>
+  </si>
+  <si>
+    <t>97.267760</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -402,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,9 +437,10 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="49.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,8 +453,14 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -442,8 +473,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -456,8 +493,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -465,13 +508,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -479,13 +528,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -497,6 +552,12 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
